--- a/DSKhachHang.xlsx
+++ b/DSKhachHang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>Mã khách hàng</t>
   </si>
@@ -371,7 +371,10 @@
     <t>KH040</t>
   </si>
   <si>
-    <t>0375643215</t>
+    <t>Hồ Minh Hậu</t>
+  </si>
+  <si>
+    <t>0585576500</t>
   </si>
   <si>
     <t>KH041</t>
@@ -996,24 +999,24 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
